--- a/beta.xlsx
+++ b/beta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sifou\project_finance_ST7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6116D2C5-84D9-416B-B37A-9C8BD24AEF13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB8897C-1090-4FC3-95DB-A27092BFD642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{3498E0BA-68F0-47E6-8BA3-58E61865B666}"/>
   </bookViews>
@@ -35,9 +35,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>beta</t>
+  </si>
+  <si>
+    <t>Tracking error (variance)</t>
+  </si>
+  <si>
+    <t>Tracking error (deviation)</t>
   </si>
 </sst>
 </file>
@@ -73,9 +79,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -390,13 +397,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C311B0F-1E1C-46D5-996D-7118680AB4D4}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="8" max="8" width="11.81640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B1">
@@ -460,15 +470,735 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1.3548851264490496E-6</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1.9865679885329503E-6</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1.8401351446897656E-6</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1.0046560630964545E-6</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1.8401351446897656E-6</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1.0223599775164844E-6</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1.0665351594872024E-6</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1.4603328923370959E-6</v>
+      </c>
+      <c r="J3" s="1">
+        <v>2.051532698390926E-6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <f>SQRT(B3)</f>
+        <v>1.1639953292213203E-3</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:J4" si="0">SQRT(C3)</f>
+        <v>1.4094566288229483E-3</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>1.3565158107039393E-3</v>
+      </c>
+      <c r="E4">
+        <f>SQRT(E3)</f>
+        <v>1.0023253279731359E-3</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>1.3565158107039393E-3</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>1.0111181817752484E-3</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>1.0327318913867249E-3</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>1.2084423413374326E-3</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>1.4323172478159041E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F43" s="2"/>
+    </row>
+    <row r="44" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F44" s="2"/>
+    </row>
+    <row r="45" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F45" s="2"/>
+    </row>
+    <row r="46" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F47" s="2"/>
+    </row>
+    <row r="48" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F48" s="2"/>
+    </row>
+    <row r="49" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F49" s="2"/>
+    </row>
+    <row r="50" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F50" s="2"/>
+    </row>
+    <row r="51" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F51" s="2"/>
+    </row>
+    <row r="52" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F52" s="2"/>
+    </row>
+    <row r="53" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F53" s="2"/>
+    </row>
+    <row r="54" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F54" s="2"/>
+    </row>
+    <row r="55" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F55" s="2"/>
+    </row>
+    <row r="56" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F56" s="2"/>
+    </row>
+    <row r="57" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F57" s="2"/>
+    </row>
+    <row r="58" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F58" s="2"/>
+    </row>
+    <row r="59" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F59" s="2"/>
+    </row>
+    <row r="60" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F60" s="2"/>
+    </row>
+    <row r="61" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F61" s="2"/>
+    </row>
+    <row r="62" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F62" s="2"/>
+    </row>
+    <row r="63" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+    </row>
+    <row r="64" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F64" s="2"/>
+    </row>
+    <row r="65" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F65" s="2"/>
+    </row>
+    <row r="66" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F66" s="2"/>
+    </row>
+    <row r="67" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F67" s="2"/>
+    </row>
+    <row r="68" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F68" s="2"/>
+    </row>
+    <row r="69" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F69" s="2"/>
+    </row>
+    <row r="70" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F70" s="2"/>
+    </row>
+    <row r="71" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+    </row>
+    <row r="72" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F72" s="2"/>
+    </row>
+    <row r="73" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F73" s="2"/>
+    </row>
+    <row r="74" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F74" s="2"/>
+    </row>
+    <row r="75" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F75" s="2"/>
+    </row>
+    <row r="76" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F76" s="2"/>
+    </row>
+    <row r="77" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F77" s="2"/>
+    </row>
+    <row r="78" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F78" s="2"/>
+    </row>
+    <row r="79" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F79" s="2"/>
+    </row>
+    <row r="80" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F80" s="2"/>
+    </row>
+    <row r="81" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F81" s="2"/>
+    </row>
+    <row r="82" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+    </row>
+    <row r="83" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F83" s="2"/>
+    </row>
+    <row r="84" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F84" s="2"/>
+    </row>
+    <row r="85" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F85" s="2"/>
+    </row>
+    <row r="86" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F86" s="2"/>
+    </row>
+    <row r="87" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F87" s="2"/>
+    </row>
+    <row r="88" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F88" s="2"/>
+    </row>
+    <row r="89" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F89" s="2"/>
+    </row>
+    <row r="90" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F90" s="2"/>
+    </row>
+    <row r="91" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F91" s="2"/>
+    </row>
+    <row r="92" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F92" s="2"/>
+    </row>
+    <row r="93" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F93" s="2"/>
+    </row>
+    <row r="94" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F94" s="2"/>
+    </row>
+    <row r="95" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F95" s="2"/>
+    </row>
+    <row r="96" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F96" s="2"/>
+    </row>
+    <row r="97" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F97" s="2"/>
+    </row>
+    <row r="98" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F98" s="2"/>
+    </row>
+    <row r="99" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F99" s="2"/>
+    </row>
+    <row r="100" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F100" s="2"/>
+      <c r="G100" s="2"/>
+    </row>
+    <row r="101" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F101" s="2"/>
+    </row>
+    <row r="102" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F102" s="2"/>
+    </row>
+    <row r="103" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F103" s="2"/>
+    </row>
+    <row r="104" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F104" s="2"/>
+    </row>
+    <row r="105" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F105" s="2"/>
+    </row>
+    <row r="106" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F106" s="2"/>
+    </row>
+    <row r="107" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F107" s="2"/>
+    </row>
+    <row r="108" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F108" s="2"/>
+    </row>
+    <row r="109" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F109" s="2"/>
+    </row>
+    <row r="110" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F110" s="2"/>
+    </row>
+    <row r="111" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F111" s="2"/>
+    </row>
+    <row r="112" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F112" s="2"/>
+    </row>
+    <row r="113" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F113" s="2"/>
+    </row>
+    <row r="114" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F114" s="2"/>
+      <c r="G114" s="2"/>
+    </row>
+    <row r="115" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F115" s="2"/>
+    </row>
+    <row r="116" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F116" s="2"/>
+    </row>
+    <row r="117" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F117" s="2"/>
+    </row>
+    <row r="118" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F118" s="2"/>
+    </row>
+    <row r="119" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F119" s="2"/>
+    </row>
+    <row r="120" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F120" s="2"/>
+    </row>
+    <row r="121" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F121" s="2"/>
+    </row>
+    <row r="122" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F122" s="2"/>
+    </row>
+    <row r="123" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F123" s="2"/>
+    </row>
+    <row r="124" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F124" s="2"/>
+    </row>
+    <row r="125" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F125" s="2"/>
+    </row>
+    <row r="126" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F126" s="2"/>
+    </row>
+    <row r="127" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F127" s="2"/>
+    </row>
+    <row r="128" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F128" s="2"/>
+    </row>
+    <row r="129" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F129" s="2"/>
+    </row>
+    <row r="130" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F130" s="2"/>
+    </row>
+    <row r="131" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F131" s="2"/>
+    </row>
+    <row r="132" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F132" s="2"/>
+    </row>
+    <row r="133" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F133" s="2"/>
+    </row>
+    <row r="134" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F134" s="2"/>
+    </row>
+    <row r="135" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F135" s="2"/>
+    </row>
+    <row r="136" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F136" s="2"/>
+    </row>
+    <row r="137" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F137" s="2"/>
+    </row>
+    <row r="138" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F138" s="2"/>
+    </row>
+    <row r="139" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F139" s="2"/>
+    </row>
+    <row r="140" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F140" s="2"/>
+    </row>
+    <row r="141" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F141" s="2"/>
+    </row>
+    <row r="142" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F142" s="2"/>
+    </row>
+    <row r="143" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F143" s="2"/>
+    </row>
+    <row r="144" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F144" s="2"/>
+    </row>
+    <row r="145" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F145" s="2"/>
+    </row>
+    <row r="146" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F146" s="2"/>
+    </row>
+    <row r="147" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F147" s="2"/>
+    </row>
+    <row r="148" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F148" s="2"/>
+    </row>
+    <row r="149" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F149" s="2"/>
+    </row>
+    <row r="150" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F150" s="2"/>
+    </row>
+    <row r="151" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F151" s="2"/>
+      <c r="G151" s="2"/>
+    </row>
+    <row r="152" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F152" s="2"/>
+    </row>
+    <row r="153" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F153" s="2"/>
+    </row>
+    <row r="154" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F154" s="2"/>
+    </row>
+    <row r="155" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F155" s="2"/>
+    </row>
+    <row r="156" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F156" s="2"/>
+      <c r="G156" s="2"/>
+    </row>
+    <row r="157" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F157" s="2"/>
+    </row>
+    <row r="158" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F158" s="2"/>
+    </row>
+    <row r="159" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F159" s="2"/>
+    </row>
+    <row r="160" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F160" s="2"/>
+    </row>
+    <row r="161" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F161" s="2"/>
+    </row>
+    <row r="162" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F162" s="2"/>
+    </row>
+    <row r="163" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F163" s="2"/>
+    </row>
+    <row r="164" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F164" s="2"/>
+    </row>
+    <row r="165" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F165" s="2"/>
+    </row>
+    <row r="166" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F166" s="2"/>
+    </row>
+    <row r="167" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F167" s="2"/>
+    </row>
+    <row r="168" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F168" s="2"/>
+    </row>
+    <row r="169" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F169" s="2"/>
+    </row>
+    <row r="170" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F170" s="2"/>
+    </row>
+    <row r="171" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F171" s="2"/>
+    </row>
+    <row r="172" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F172" s="2"/>
+    </row>
+    <row r="173" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F173" s="2"/>
+    </row>
+    <row r="174" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F174" s="2"/>
+    </row>
+    <row r="175" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F175" s="2"/>
+      <c r="G175" s="2"/>
+    </row>
+    <row r="176" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F176" s="2"/>
+    </row>
+    <row r="177" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F177" s="2"/>
+    </row>
+    <row r="178" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F178" s="2"/>
+    </row>
+    <row r="179" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F179" s="2"/>
+    </row>
+    <row r="180" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F180" s="2"/>
+    </row>
+    <row r="181" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F181" s="2"/>
+    </row>
+    <row r="182" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F182" s="2"/>
+    </row>
+    <row r="183" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F183" s="2"/>
+    </row>
+    <row r="184" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F184" s="2"/>
+    </row>
+    <row r="185" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F185" s="2"/>
+      <c r="G185" s="2"/>
+    </row>
+    <row r="186" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F186" s="2"/>
+    </row>
+    <row r="187" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F187" s="2"/>
+    </row>
+    <row r="188" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F188" s="2"/>
+    </row>
+    <row r="189" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F189" s="2"/>
+    </row>
+    <row r="190" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F190" s="2"/>
+    </row>
+    <row r="191" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F191" s="2"/>
+      <c r="G191" s="2"/>
+    </row>
+    <row r="192" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F192" s="2"/>
+    </row>
+    <row r="193" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F193" s="2"/>
+    </row>
+    <row r="194" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F194" s="2"/>
+    </row>
+    <row r="195" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F195" s="2"/>
+    </row>
+    <row r="196" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F196" s="2"/>
+    </row>
+    <row r="197" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F197" s="2"/>
+    </row>
+    <row r="198" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F198" s="2"/>
+    </row>
+    <row r="199" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F199" s="2"/>
+    </row>
+    <row r="200" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F200" s="2"/>
+    </row>
+    <row r="201" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F201" s="2"/>
+    </row>
+    <row r="202" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F202" s="2"/>
+    </row>
+    <row r="203" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F203" s="2"/>
+    </row>
+    <row r="204" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F204" s="2"/>
+    </row>
+    <row r="205" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F205" s="2"/>
+    </row>
+    <row r="206" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F206" s="2"/>
+    </row>
+    <row r="207" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F207" s="2"/>
+    </row>
+    <row r="208" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F208" s="2"/>
+    </row>
+    <row r="209" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F209" s="2"/>
+    </row>
+    <row r="210" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F210" s="2"/>
+    </row>
+    <row r="211" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F211" s="2"/>
+    </row>
+    <row r="212" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F212" s="2"/>
+    </row>
+    <row r="213" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F213" s="2"/>
+    </row>
+    <row r="214" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F214" s="2"/>
+    </row>
+    <row r="215" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F215" s="2"/>
+    </row>
+    <row r="216" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F216" s="2"/>
+    </row>
+    <row r="217" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F217" s="2"/>
+    </row>
+    <row r="218" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F218" s="2"/>
+    </row>
+    <row r="219" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F219" s="2"/>
+    </row>
+    <row r="220" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F220" s="2"/>
+    </row>
+    <row r="221" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F221" s="2"/>
+    </row>
+    <row r="222" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F222" s="2"/>
+      <c r="G222" s="2"/>
+    </row>
+    <row r="223" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F223" s="2"/>
+      <c r="G223" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/beta.xlsx
+++ b/beta.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sifou\project_finance_ST7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB8897C-1090-4FC3-95DB-A27092BFD642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7CCCA67-53AF-47DF-9ADB-9D31F8004B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{3498E0BA-68F0-47E6-8BA3-58E61865B666}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -98,6 +101,25 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="sector_performance"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="T3">
+            <v>2.3783378669086809E-6</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -400,11 +422,12 @@
   <dimension ref="A1:J223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -441,32 +464,32 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
-        <v>0.36519531136857675</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0.11421184400252149</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.15142916410090537</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0.42513183445610825</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0.28300604780829525</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0.40366380640517102</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0.50198928072788729</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0.26146087330650553</v>
-      </c>
-      <c r="J2" s="1">
-        <v>8.3890859461267966E-2</v>
+      <c r="B2">
+        <v>1.1257902617624105</v>
+      </c>
+      <c r="C2">
+        <v>0.60252833958230312</v>
+      </c>
+      <c r="D2">
+        <v>1.1907074714694983</v>
+      </c>
+      <c r="E2">
+        <v>1.2487568849066419</v>
+      </c>
+      <c r="F2">
+        <v>0.74331970306963524</v>
+      </c>
+      <c r="G2">
+        <v>1.229765544790455</v>
+      </c>
+      <c r="H2">
+        <v>1.08663876890424</v>
+      </c>
+      <c r="I2">
+        <v>1.2008656675056055</v>
+      </c>
+      <c r="J2">
+        <v>0.5064316133435296</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -474,31 +497,40 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>1.3548851264490496E-6</v>
+        <f>(1-B2)^2*[1]sector_performance!$T$3</f>
+        <v>3.7632891843495485E-8</v>
       </c>
       <c r="C3" s="1">
-        <v>1.9865679885329503E-6</v>
+        <f>(1-C2)^2*[1]sector_performance!$T$3</f>
+        <v>3.7573866561748837E-7</v>
       </c>
       <c r="D3" s="1">
-        <v>1.8401351446897656E-6</v>
+        <f>(1-D2)^2*[1]sector_performance!$T$3</f>
+        <v>8.6498577741826969E-8</v>
       </c>
       <c r="E3" s="1">
-        <v>1.0046560630964545E-6</v>
+        <f>(1-E2)^2*[1]sector_performance!$T$3</f>
+        <v>1.4717151816113239E-7</v>
       </c>
       <c r="F3" s="1">
-        <v>1.8401351446897656E-6</v>
+        <f>(1-F2)^2*[1]sector_performance!$T$3</f>
+        <v>1.5669625483631654E-7</v>
       </c>
       <c r="G3" s="1">
-        <v>1.0223599775164844E-6</v>
+        <f>(1-G2)^2*[1]sector_performance!$T$3</f>
+        <v>1.2555770159154753E-7</v>
       </c>
       <c r="H3" s="1">
-        <v>1.0665351594872024E-6</v>
+        <f>(1-H2)^2*[1]sector_performance!$T$3</f>
+        <v>1.7852461109643715E-8</v>
       </c>
       <c r="I3" s="1">
-        <v>1.4603328923370959E-6</v>
+        <f>(1-I2)^2*[1]sector_performance!$T$3</f>
+        <v>9.5958836879219173E-8</v>
       </c>
       <c r="J3" s="1">
-        <v>2.051532698390926E-6</v>
+        <f>(1-J2)^2*[1]sector_performance!$T$3</f>
+        <v>5.7938629865920018E-7</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
@@ -507,39 +539,39 @@
       </c>
       <c r="B4">
         <f>SQRT(B3)</f>
-        <v>1.1639953292213203E-3</v>
+        <v>1.9399198912196217E-4</v>
       </c>
       <c r="C4">
         <f t="shared" ref="C4:J4" si="0">SQRT(C3)</f>
-        <v>1.4094566288229483E-3</v>
+        <v>6.1297525693741371E-4</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>1.3565158107039393E-3</v>
+        <v>2.9410640547568317E-4</v>
       </c>
       <c r="E4">
         <f>SQRT(E3)</f>
-        <v>1.0023253279731359E-3</v>
+        <v>3.8362940210720606E-4</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>1.3565158107039393E-3</v>
+        <v>3.9584877773755542E-4</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>1.0111181817752484E-3</v>
+        <v>3.5434122197614481E-4</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>1.0327318913867249E-3</v>
+        <v>1.3361310231277363E-4</v>
       </c>
       <c r="I4">
         <f t="shared" si="0"/>
-        <v>1.2084423413374326E-3</v>
+        <v>3.0977223387388867E-4</v>
       </c>
       <c r="J4">
         <f t="shared" si="0"/>
-        <v>1.4323172478159041E-3</v>
+        <v>7.6117428927887482E-4</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">

--- a/beta.xlsx
+++ b/beta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sifou\project_finance_ST7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7CCCA67-53AF-47DF-9ADB-9D31F8004B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4445F72C-8120-4918-A2FF-913B7B4EF692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{3498E0BA-68F0-47E6-8BA3-58E61865B666}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>beta</t>
   </si>
@@ -48,13 +48,48 @@
   <si>
     <t>Tracking error (deviation)</t>
   </si>
+  <si>
+    <t>CONSUMER DISCRETIONARY</t>
+  </si>
+  <si>
+    <t>CONSUMER STAPLES</t>
+  </si>
+  <si>
+    <t>ENERGY</t>
+  </si>
+  <si>
+    <t>FINANCIALS</t>
+  </si>
+  <si>
+    <t>HEALTH CARE</t>
+  </si>
+  <si>
+    <t>INDUSTRIALS</t>
+  </si>
+  <si>
+    <t>INFORMATION TECHNOLOGY</t>
+  </si>
+  <si>
+    <t>MATERIALS</t>
+  </si>
+  <si>
+    <t>UTILITIES</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -82,10 +117,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -108,15 +147,17 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="sector_performance"/>
+      <sheetName val="Feuil1"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="3">
-          <cell r="T3">
-            <v>2.3783378669086809E-6</v>
+        <row r="1">
+          <cell r="T1">
+            <v>2.59306E-6</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -419,163 +460,226 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C311B0F-1E1C-46D5-996D-7118680AB4D4}">
-  <dimension ref="A1:J223"/>
+  <dimension ref="A1:J224"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B1">
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1">
+      <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D1">
+      <c r="E1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E1">
+      <c r="F1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F1">
+      <c r="G1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G1">
+      <c r="H1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H1">
+      <c r="I1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I1">
+      <c r="J1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J1">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>7</v>
+      </c>
+      <c r="F2">
+        <v>8</v>
+      </c>
+      <c r="G2">
+        <v>9</v>
+      </c>
+      <c r="H2">
+        <v>10</v>
+      </c>
+      <c r="I2">
+        <v>11</v>
+      </c>
+      <c r="J2">
         <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1.1257902617624105</v>
-      </c>
-      <c r="C2">
-        <v>0.60252833958230312</v>
-      </c>
-      <c r="D2">
-        <v>1.1907074714694983</v>
-      </c>
-      <c r="E2">
-        <v>1.2487568849066419</v>
-      </c>
-      <c r="F2">
-        <v>0.74331970306963524</v>
-      </c>
-      <c r="G2">
-        <v>1.229765544790455</v>
-      </c>
-      <c r="H2">
-        <v>1.08663876890424</v>
-      </c>
-      <c r="I2">
-        <v>1.2008656675056055</v>
-      </c>
-      <c r="J2">
-        <v>0.5064316133435296</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <f>(1-B2)^2*[1]sector_performance!$T$3</f>
-        <v>3.7632891843495485E-8</v>
-      </c>
-      <c r="C3" s="1">
-        <f>(1-C2)^2*[1]sector_performance!$T$3</f>
-        <v>3.7573866561748837E-7</v>
-      </c>
-      <c r="D3" s="1">
-        <f>(1-D2)^2*[1]sector_performance!$T$3</f>
-        <v>8.6498577741826969E-8</v>
-      </c>
-      <c r="E3" s="1">
-        <f>(1-E2)^2*[1]sector_performance!$T$3</f>
-        <v>1.4717151816113239E-7</v>
-      </c>
-      <c r="F3" s="1">
-        <f>(1-F2)^2*[1]sector_performance!$T$3</f>
-        <v>1.5669625483631654E-7</v>
-      </c>
-      <c r="G3" s="1">
-        <f>(1-G2)^2*[1]sector_performance!$T$3</f>
-        <v>1.2555770159154753E-7</v>
-      </c>
-      <c r="H3" s="1">
-        <f>(1-H2)^2*[1]sector_performance!$T$3</f>
-        <v>1.7852461109643715E-8</v>
-      </c>
-      <c r="I3" s="1">
-        <f>(1-I2)^2*[1]sector_performance!$T$3</f>
-        <v>9.5958836879219173E-8</v>
-      </c>
-      <c r="J3" s="1">
-        <f>(1-J2)^2*[1]sector_performance!$T$3</f>
-        <v>5.7938629865920018E-7</v>
+        <v>0</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.34742737533566831</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.59118790957214129</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1.1896682234529989</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1.3034896069731807</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.10479309104078151</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1.2319170943877815</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1.0832346148236496</v>
+      </c>
+      <c r="I3" s="4">
+        <v>1.2196606968530446</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0.51931179662236726</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <f>(1-B3)^2*[1]sector_performance!$T$1</f>
+        <v>1.104257273047965E-6</v>
+      </c>
+      <c r="C4" s="1">
+        <f>(1-C3)^2*[1]sector_performance!$T$1</f>
+        <v>4.3337118209054567E-7</v>
+      </c>
+      <c r="D4" s="1">
+        <f>(1-D3)^2*[1]sector_performance!$T$1</f>
+        <v>9.3282831165508079E-8</v>
+      </c>
+      <c r="E4" s="1">
+        <f>(1-E3)^2*[1]sector_performance!$T$1</f>
+        <v>2.388362327716201E-7</v>
+      </c>
+      <c r="F4" s="1">
+        <f>(1-F3)^2*[1]sector_performance!$T$1</f>
+        <v>2.078066381461281E-6</v>
+      </c>
+      <c r="G4" s="1">
+        <f>(1-G3)^2*[1]sector_performance!$T$1</f>
+        <v>1.3946912890174027E-7</v>
+      </c>
+      <c r="H4" s="1">
+        <f>(1-H3)^2*[1]sector_performance!$T$1</f>
+        <v>1.7964722544919797E-8</v>
+      </c>
+      <c r="I4" s="1">
+        <f>(1-I3)^2*[1]sector_performance!$T$1</f>
+        <v>1.2511727582622012E-7</v>
+      </c>
+      <c r="J4" s="1">
+        <f>(1-J3)^2*[1]sector_performance!$T$1</f>
+        <v>5.9915542267954975E-7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
-        <f>SQRT(B3)</f>
-        <v>1.9399198912196217E-4</v>
-      </c>
-      <c r="C4">
-        <f t="shared" ref="C4:J4" si="0">SQRT(C3)</f>
-        <v>6.1297525693741371E-4</v>
-      </c>
-      <c r="D4">
+      <c r="B5">
+        <f>SQRT(B4)</f>
+        <v>1.0508364635127413E-3</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:J5" si="0">SQRT(C4)</f>
+        <v>6.5830933617148837E-4</v>
+      </c>
+      <c r="D5">
         <f t="shared" si="0"/>
-        <v>2.9410640547568317E-4</v>
-      </c>
-      <c r="E4">
-        <f>SQRT(E3)</f>
-        <v>3.8362940210720606E-4</v>
-      </c>
-      <c r="F4">
+        <v>3.0542238157264779E-4</v>
+      </c>
+      <c r="E5">
         <f t="shared" si="0"/>
-        <v>3.9584877773755542E-4</v>
-      </c>
-      <c r="G4">
+        <v>4.8870874022429768E-4</v>
+      </c>
+      <c r="F5">
         <f t="shared" si="0"/>
-        <v>3.5434122197614481E-4</v>
-      </c>
-      <c r="H4">
+        <v>1.4415499927027439E-3</v>
+      </c>
+      <c r="G5">
         <f t="shared" si="0"/>
-        <v>1.3361310231277363E-4</v>
-      </c>
-      <c r="I4">
+        <v>3.7345565854829442E-4</v>
+      </c>
+      <c r="H5">
         <f t="shared" si="0"/>
-        <v>3.0977223387388867E-4</v>
-      </c>
-      <c r="J4">
+        <v>1.3403254285776942E-4</v>
+      </c>
+      <c r="I5">
         <f t="shared" si="0"/>
-        <v>7.6117428927887482E-4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="F9" s="2"/>
+        <v>3.5371920477438051E-4</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>7.7405130494015038E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0.59799134874096227</v>
+      </c>
+      <c r="C7">
+        <v>0.41946954515685142</v>
+      </c>
+      <c r="D7">
+        <v>0.35366987856033588</v>
+      </c>
+      <c r="E7">
+        <v>0.44820881162130138</v>
+      </c>
+      <c r="F7">
+        <v>0.56845054669455697</v>
+      </c>
+      <c r="G7">
+        <v>0.44820881162130138</v>
+      </c>
+      <c r="H7">
+        <v>0.56845054669455697</v>
+      </c>
+      <c r="I7">
+        <v>0.4338127152591702</v>
+      </c>
+      <c r="J7">
+        <v>0.74144875107192565</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F10" s="2"/>
@@ -583,9 +687,6 @@
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="F12" s="2"/>
-    </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F13" s="2"/>
     </row>
@@ -624,10 +725,10 @@
     </row>
     <row r="25" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
     </row>
     <row r="26" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
     </row>
     <row r="27" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F27" s="2"/>
@@ -739,10 +840,10 @@
     </row>
     <row r="63" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
     </row>
     <row r="64" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
     </row>
     <row r="65" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F65" s="2"/>
@@ -764,10 +865,10 @@
     </row>
     <row r="71" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F71" s="2"/>
-      <c r="G71" s="2"/>
     </row>
     <row r="72" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
     </row>
     <row r="73" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F73" s="2"/>
@@ -798,10 +899,10 @@
     </row>
     <row r="82" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F82" s="2"/>
-      <c r="G82" s="2"/>
     </row>
     <row r="83" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
     </row>
     <row r="84" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F84" s="2"/>
@@ -853,10 +954,10 @@
     </row>
     <row r="100" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F100" s="2"/>
-      <c r="G100" s="2"/>
     </row>
     <row r="101" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F101" s="2"/>
+      <c r="G101" s="2"/>
     </row>
     <row r="102" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F102" s="2"/>
@@ -896,10 +997,10 @@
     </row>
     <row r="114" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F114" s="2"/>
-      <c r="G114" s="2"/>
     </row>
     <row r="115" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F115" s="2"/>
+      <c r="G115" s="2"/>
     </row>
     <row r="116" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F116" s="2"/>
@@ -1008,10 +1109,10 @@
     </row>
     <row r="151" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F151" s="2"/>
-      <c r="G151" s="2"/>
     </row>
     <row r="152" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F152" s="2"/>
+      <c r="G152" s="2"/>
     </row>
     <row r="153" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F153" s="2"/>
@@ -1024,10 +1125,10 @@
     </row>
     <row r="156" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F156" s="2"/>
-      <c r="G156" s="2"/>
     </row>
     <row r="157" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F157" s="2"/>
+      <c r="G157" s="2"/>
     </row>
     <row r="158" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F158" s="2"/>
@@ -1082,10 +1183,10 @@
     </row>
     <row r="175" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F175" s="2"/>
-      <c r="G175" s="2"/>
     </row>
     <row r="176" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F176" s="2"/>
+      <c r="G176" s="2"/>
     </row>
     <row r="177" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F177" s="2"/>
@@ -1113,10 +1214,10 @@
     </row>
     <row r="185" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F185" s="2"/>
-      <c r="G185" s="2"/>
     </row>
     <row r="186" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F186" s="2"/>
+      <c r="G186" s="2"/>
     </row>
     <row r="187" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F187" s="2"/>
@@ -1132,10 +1233,10 @@
     </row>
     <row r="191" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F191" s="2"/>
-      <c r="G191" s="2"/>
     </row>
     <row r="192" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F192" s="2"/>
+      <c r="G192" s="2"/>
     </row>
     <row r="193" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F193" s="2"/>
@@ -1226,11 +1327,14 @@
     </row>
     <row r="222" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F222" s="2"/>
-      <c r="G222" s="2"/>
     </row>
     <row r="223" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F223" s="2"/>
       <c r="G223" s="2"/>
+    </row>
+    <row r="224" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F224" s="2"/>
+      <c r="G224" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/beta.xlsx
+++ b/beta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sifou\project_finance_ST7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4445F72C-8120-4918-A2FF-913B7B4EF692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D6A5C30-431E-4EEA-BA21-B10B9CAB5553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{3498E0BA-68F0-47E6-8BA3-58E61865B666}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>beta</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>UTILITIES</t>
+  </si>
+  <si>
+    <t>beta dernier</t>
   </si>
 </sst>
 </file>
@@ -147,17 +150,9 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="sector_performance"/>
-      <sheetName val="Feuil1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="T1">
-            <v>2.59306E-6</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="0"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -463,7 +458,7 @@
   <dimension ref="A1:J224"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -573,39 +568,39 @@
       </c>
       <c r="B4" s="1">
         <f>(1-B3)^2*[1]sector_performance!$T$1</f>
-        <v>1.104257273047965E-6</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1">
         <f>(1-C3)^2*[1]sector_performance!$T$1</f>
-        <v>4.3337118209054567E-7</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
         <f>(1-D3)^2*[1]sector_performance!$T$1</f>
-        <v>9.3282831165508079E-8</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
         <f>(1-E3)^2*[1]sector_performance!$T$1</f>
-        <v>2.388362327716201E-7</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
         <f>(1-F3)^2*[1]sector_performance!$T$1</f>
-        <v>2.078066381461281E-6</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
         <f>(1-G3)^2*[1]sector_performance!$T$1</f>
-        <v>1.3946912890174027E-7</v>
+        <v>0</v>
       </c>
       <c r="H4" s="1">
         <f>(1-H3)^2*[1]sector_performance!$T$1</f>
-        <v>1.7964722544919797E-8</v>
+        <v>0</v>
       </c>
       <c r="I4" s="1">
         <f>(1-I3)^2*[1]sector_performance!$T$1</f>
-        <v>1.2511727582622012E-7</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
         <f>(1-J3)^2*[1]sector_performance!$T$1</f>
-        <v>5.9915542267954975E-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
@@ -614,39 +609,39 @@
       </c>
       <c r="B5">
         <f>SQRT(B4)</f>
-        <v>1.0508364635127413E-3</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <f t="shared" ref="C5:J5" si="0">SQRT(C4)</f>
-        <v>6.5830933617148837E-4</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>3.0542238157264779E-4</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>4.8870874022429768E-4</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>1.4415499927027439E-3</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>3.7345565854829442E-4</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>1.3403254285776942E-4</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <f t="shared" si="0"/>
-        <v>3.5371920477438051E-4</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <f t="shared" si="0"/>
-        <v>7.7405130494015038E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
@@ -679,6 +674,38 @@
       </c>
       <c r="J7">
         <v>0.74144875107192565</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>1.1384141043993179</v>
+      </c>
+      <c r="C8">
+        <v>0.61272317166824697</v>
+      </c>
+      <c r="D8">
+        <v>1.233004776167647</v>
+      </c>
+      <c r="E8">
+        <v>1.0709569880378824</v>
+      </c>
+      <c r="F8">
+        <v>0.77265086305777975</v>
+      </c>
+      <c r="G8">
+        <v>1.2767927521836746</v>
+      </c>
+      <c r="H8">
+        <v>1.1226941250127493</v>
+      </c>
+      <c r="I8">
+        <v>1.2640895916368824</v>
+      </c>
+      <c r="J8">
+        <v>0.53822865036885903</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">

--- a/beta.xlsx
+++ b/beta.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sifou\project_finance_ST7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D6A5C30-431E-4EEA-BA21-B10B9CAB5553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A6EDC6D-E290-411C-B60A-E79F96839468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{3498E0BA-68F0-47E6-8BA3-58E61865B666}"/>
+    <workbookView xWindow="4580" yWindow="4460" windowWidth="7500" windowHeight="7360" xr2:uid="{3498E0BA-68F0-47E6-8BA3-58E61865B666}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -83,6 +83,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -120,7 +123,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -128,6 +131,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,8 +461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C311B0F-1E1C-46D5-996D-7118680AB4D4}">
   <dimension ref="A1:J224"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -676,35 +680,35 @@
         <v>0.74144875107192565</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    <row r="8" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B8">
-        <v>1.1384141043993179</v>
-      </c>
-      <c r="C8">
+      <c r="B8" s="5">
+        <v>1.1384141043993199</v>
+      </c>
+      <c r="C8" s="5">
         <v>0.61272317166824697</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="5">
         <v>1.233004776167647</v>
       </c>
-      <c r="E8">
-        <v>1.0709569880378824</v>
-      </c>
-      <c r="F8">
+      <c r="E8" s="5">
+        <v>1.07095698803788</v>
+      </c>
+      <c r="F8" s="5">
         <v>0.77265086305777975</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="5">
         <v>1.2767927521836746</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="5">
         <v>1.1226941250127493</v>
       </c>
-      <c r="I8">
-        <v>1.2640895916368824</v>
-      </c>
-      <c r="J8">
+      <c r="I8" s="5">
+        <v>1.26408959163688</v>
+      </c>
+      <c r="J8" s="5">
         <v>0.53822865036885903</v>
       </c>
     </row>

--- a/beta.xlsx
+++ b/beta.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sifou\project_finance_ST7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A6EDC6D-E290-411C-B60A-E79F96839468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42551005-3533-492C-A221-CD7FE265BA9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4580" yWindow="4460" windowWidth="7500" windowHeight="7360" xr2:uid="{3498E0BA-68F0-47E6-8BA3-58E61865B666}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{3498E0BA-68F0-47E6-8BA3-58E61865B666}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -461,8 +461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C311B0F-1E1C-46D5-996D-7118680AB4D4}">
   <dimension ref="A1:J224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/beta.xlsx
+++ b/beta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sifou\project_finance_ST7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42551005-3533-492C-A221-CD7FE265BA9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E782D779-0CFC-4DF6-BB44-F171BCD4B4D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{3498E0BA-68F0-47E6-8BA3-58E61865B666}"/>
   </bookViews>

--- a/beta.xlsx
+++ b/beta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sifou\project_finance_ST7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E782D779-0CFC-4DF6-BB44-F171BCD4B4D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A179A395-CFFC-44F9-9EFD-53F5D0C6CCFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{3498E0BA-68F0-47E6-8BA3-58E61865B666}"/>
   </bookViews>
@@ -154,9 +154,13 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="sector_performance"/>
+      <sheetName val="Feuil1"/>
+      <sheetName val="Feuil2"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -462,7 +466,7 @@
   <dimension ref="A1:J224"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="B1" sqref="B1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/beta.xlsx
+++ b/beta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sifou\project_finance_ST7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A179A395-CFFC-44F9-9EFD-53F5D0C6CCFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A70E49-9380-4E19-AC71-E488A5605C4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{3498E0BA-68F0-47E6-8BA3-58E61865B666}"/>
   </bookViews>
@@ -149,18 +149,1184 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Relation entre beta et performance</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.5983814523184607E-2"/>
+          <c:y val="0.17171296296296298"/>
+          <c:w val="0.80857414698162733"/>
+          <c:h val="0.52535727655213682"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:areaChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Performance</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$B$10:$J$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-4.3868266029280512E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.7902038749855862E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.5387273576883085E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.10620704606647657</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.5956173984336695E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-8.3398336407410234E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4.6830087677137477E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-9.7484265973500128E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.3077417632708985E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-770B-4126-8E5B-63E10925F648}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1551496704"/>
+        <c:axId val="1551495456"/>
+      </c:areaChart>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Beta</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Feuil1!$B$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>CONSUMER DISCRETIONARY</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CONSUMER STAPLES</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ENERGY</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FINANCIALS</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>HEALTH CARE</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>INDUSTRIALS</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>INFORMATION TECHNOLOGY</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MATERIALS</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>UTILITIES</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$B$8:$J$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.1384141043993199</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.61272317166824697</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.233004776167647</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.07095698803788</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.77265086305777975</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2767927521836746</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1226941250127493</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.26408959163688</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.53822865036885903</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-770B-4126-8E5B-63E10925F648}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="240"/>
+        <c:overlap val="-20"/>
+        <c:axId val="1276301488"/>
+        <c:axId val="1276301904"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Feuil1!$B$1:$J$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>CONSUMER DISCRETIONARY</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>CONSUMER STAPLES</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>ENERGY</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>FINANCIALS</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>HEALTH CARE</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>INDUSTRIALS</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>INFORMATION TECHNOLOGY</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>MATERIALS</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>UTILITIES</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Feuil1!$B$9:$J$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-770B-4126-8E5B-63E10925F648}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1276301488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1276301904"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1276301904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="high"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1276301488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1551495456"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1551496704"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1551496704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1551495456"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1069974</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>22224</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0C7F03C-C851-4267-BC59-71B7194A46DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="sector_performance"/>
       <sheetName val="Feuil1"/>
-      <sheetName val="Feuil2"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -466,7 +1632,7 @@
   <dimension ref="A1:J224"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:J1"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -717,7 +1883,33 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="F10" s="2"/>
+      <c r="B10">
+        <v>-4.3868266029280512E-2</v>
+      </c>
+      <c r="C10">
+        <v>-2.7902038749855862E-2</v>
+      </c>
+      <c r="D10">
+        <v>-2.5387273576883085E-2</v>
+      </c>
+      <c r="E10">
+        <v>-0.10620704606647657</v>
+      </c>
+      <c r="F10">
+        <v>-2.5956173984336695E-2</v>
+      </c>
+      <c r="G10">
+        <v>-8.3398336407410234E-2</v>
+      </c>
+      <c r="H10">
+        <v>-4.6830087677137477E-2</v>
+      </c>
+      <c r="I10">
+        <v>-9.7484265973500128E-2</v>
+      </c>
+      <c r="J10">
+        <v>-2.3077417632708985E-2</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F11" s="2"/>
@@ -1374,5 +2566,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/beta.xlsx
+++ b/beta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sifou\project_finance_ST7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A70E49-9380-4E19-AC71-E488A5605C4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F3017FB-207A-455D-BFB8-34920CE0909A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{3498E0BA-68F0-47E6-8BA3-58E61865B666}"/>
   </bookViews>
@@ -639,6 +639,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1551496704"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
@@ -647,11 +648,12 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
-        <c:axPos val="b"/>
+        <c:axPos val="t"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1551495456"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1280,16 +1282,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1069974</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>22224</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1323,10 +1325,14 @@
     <sheetNames>
       <sheetName val="sector_performance"/>
       <sheetName val="Feuil1"/>
+      <sheetName val="Feuil2"/>
+      <sheetName val="Feuil3"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1632,7 +1638,7 @@
   <dimension ref="A1:J224"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F18" sqref="B12:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
